--- a/fuentes/contenidos/grado10/guion03/EsqueletoGuión_CN_10_03_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion03/EsqueletoGuión_CN_10_03_CO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1395" windowWidth="17085" windowHeight="6735" tabRatio="729" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="17085" windowHeight="6735" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,15 @@
     <sheet name="CUADERNO DE ESTUDIO" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CUADERNO DEL PROFESOR'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'CUADERNO DE ESTUDIO'!$A$1:$I$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CUADERNO DEL PROFESOR'!$A$1:$C$24</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="76">
   <si>
     <t>FICHA</t>
   </si>
@@ -136,9 +135,6 @@
     <t>Profundiza</t>
   </si>
   <si>
-    <t>Identifica las componentes de un vector correctamente</t>
-  </si>
-  <si>
     <t>Consolidación</t>
   </si>
   <si>
@@ -148,20 +144,119 @@
     <t>Practica con las componentes de un vector</t>
   </si>
   <si>
-    <t>Movimiento Parabólico</t>
-  </si>
-  <si>
     <t>sí</t>
   </si>
   <si>
     <t>El movimiento parabólico (proyectiles)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifica correctamente las componentes de un vector </t>
+  </si>
+  <si>
+    <t>¿Qué sabes sobre el movimiento parabólico?</t>
+  </si>
+  <si>
+    <t>Ángulo óptimo en un lanzamiento de tiro parabólico</t>
+  </si>
+  <si>
+    <t>Aplicación del movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Movimiento circular</t>
+  </si>
+  <si>
+    <t>Movimiento parabólico</t>
+  </si>
+  <si>
+    <t>Características de un movimiento circular</t>
+  </si>
+  <si>
+    <t>Identifica los elementos del movimiento circular</t>
+  </si>
+  <si>
+    <t>Aplicación del movimiento circular</t>
+  </si>
+  <si>
+    <t>Movimiento circular uniforme</t>
+  </si>
+  <si>
+    <t>Análisis cinemático de la aceleración centrípeta</t>
+  </si>
+  <si>
+    <t>Entiende el movimiento circular uniforme</t>
+  </si>
+  <si>
+    <t>Movimiento circular de la Luna alrededor de la Tierra</t>
+  </si>
+  <si>
+    <t>Movimiento circular uniformemente acelerado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resuelve problemas sobre el movimiento circular </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El movimiento circular</t>
+  </si>
+  <si>
+    <t>Comprende el movimiento circular</t>
+  </si>
+  <si>
+    <t>Movimiento planetario</t>
+  </si>
+  <si>
+    <t>Modelos del universo</t>
+  </si>
+  <si>
+    <t>Modelo de Ptolomeo</t>
+  </si>
+  <si>
+    <t>Conoce el modelo de Ptolomeo sobre el universo</t>
+  </si>
+  <si>
+    <t>Modelo de Copérnico</t>
+  </si>
+  <si>
+    <t>Aprende sobre el modelo de Copérnico</t>
+  </si>
+  <si>
+    <t>Leyes de Kepler</t>
+  </si>
+  <si>
+    <t>Investiga sobre las leyes de Kepler</t>
+  </si>
+  <si>
+    <t>Primera ley de Kepler</t>
+  </si>
+  <si>
+    <t>Segunda ley de Kepler</t>
+  </si>
+  <si>
+    <t>Tercera ley de Kepler</t>
+  </si>
+  <si>
+    <t>Los satélites naturales y artificiales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Las leyes de Kepler   </t>
+  </si>
+  <si>
+    <t>La cinemática</t>
+  </si>
+  <si>
+    <t>La gravedad</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>El movimiento en dos dimensiones, sus características y apliaciones en diferentes contextos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,12 +334,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF333333"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -269,7 +358,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +389,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -337,6 +450,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -741,7 +891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -784,34 +934,52 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1481,7 +1649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1489,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,6 +1689,9 @@
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1544,6 +1715,11 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,18 +1770,24 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="28">
+        <v>4</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1614,189 +1796,186 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="28">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="32">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="32">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="32">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="C7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="41">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22" t="s">
+      <c r="C8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="41">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="41">
+        <v>19</v>
+      </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="41">
+        <v>20</v>
+      </c>
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="22"/>
+      <c r="F11" s="41">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1806,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,44 +2009,147 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="28">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
+      <c r="A6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="28">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="32">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="A8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="32">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="18">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:C65">
@@ -1880,13 +2162,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,132 +2189,270 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A13" s="32">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>16</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="40">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="22"/>
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="40">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C24" s="46" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C24">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="sí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:C38">
     <sortCondition ref="A2:A38"/>
   </sortState>
@@ -2044,21 +2464,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I77"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="100.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="100.140625" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2091,1089 +2511,1739 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="32" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="32" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="32" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="32" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="32" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="32" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="32" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="32" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="E39" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33" t="s">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="32" t="s">
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="32" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="22" t="s">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="22" t="s">
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="22" t="s">
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="35"/>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="35"/>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="35"/>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="35"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" s="35"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="22" t="s">
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="22"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I89" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B91" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18" t="s">
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B92" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="18" t="s">
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I92" s="18" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I92">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
